--- a/biology/Origine et évolution du vivant/Liste_des_mammifères_au_Bénin/Liste_des_mammifères_au_Bénin.xlsx
+++ b/biology/Origine et évolution du vivant/Liste_des_mammifères_au_Bénin/Liste_des_mammifères_au_Bénin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceci est une liste des espèces de mammifères recensées au Bénin. Parmi les espèces de mammifères du Bénin, trois sont en danger, neuf sont vulnérables et deux sont quasi menacées. Cette liste est dérivée de la Liste rouge de l'UICN qui répertorie les espèces de mammifères et inclut les mammifères qui ont été récemment classés comme éteints (depuis 1500 apr. J.-C.). La taxonomie des espèces est basée sur celle de l'UICN, de la Smithsonian Institution ou de l'Université du Michigan[1],[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceci est une liste des espèces de mammifères recensées au Bénin. Parmi les espèces de mammifères du Bénin, trois sont en danger, neuf sont vulnérables et deux sont quasi menacées. Cette liste est dérivée de la Liste rouge de l'UICN qui répertorie les espèces de mammifères et inclut les mammifères qui ont été récemment classés comme éteints (depuis 1500 apr. J.-C.). La taxonomie des espèces est basée sur celle de l'UICN, de la Smithsonian Institution ou de l'Université du Michigan.
 Les balises suivantes sont utilisées pour mettre en évidence l'état de conservation de chaque espèce tel qu'évalué par l'Union internationale pour la conservation de la nature :
-Certaines espèces ont été évaluées à l'aide d'un ensemble de critères antérieurs. Les espèces évaluées à l'aide de ce système ont les catégories suivantes au lieu des catégories quasi menacées et moins préoccupantes[5] :
+Certaines espèces ont été évaluées à l'aide d'un ensemble de critères antérieurs. Les espèces évaluées à l'aide de ce système ont les catégories suivantes au lieu des catégories quasi menacées et moins préoccupantes :
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Ordre : Tubulidentata (aardvark)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Famille : Orycteropodidae (Oryctérope)
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Ordre : Hyracoidea (hyrax)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les damans sont l'une des quatre espèces de mammifères herbivores assez petits et épais de l'ordre des Hyracoidea. De la taille d'un chat domestique, ils ont une bonne fourrure, un corps arrondi et une queue courte. Ils sont originaires d'Afrique et du Moyen-Orient.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Ordre : Proboscidea (éléphants)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les éléphants comprennent trois espèces vivantes et sont les plus grands animaux terrestres vivants.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Ordre : Sirenia (lamantins et dugongs)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sirenia est un ordre de mammifères herbivores entièrement aquatiques qui habitent les rivières, les estuaires, les eaux marines côtières, les marécages et les zones humides marines. Les quatre espèces sont menacées.
@@ -672,7 +692,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -690,7 +710,9 @@
           <t>Ordre : Rodentia (rongeurs)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les rongeurs constituent le plus grand ordre de mammifères, avec plus de 40 % des espèces de mammifères. Ils ont deux incisives dans la mâchoire supérieure et inférieure qui poussent continuellement et doivent être maintenues courtes en rongeant. La plupart des rongeurs sont petits bien que le capybara puisse peser jusqu'à 45 kg (100 kg).
@@ -784,7 +806,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -802,7 +824,9 @@
           <t>Ordre : Lagomorpha (lagomorphes)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les lagomorphes comprennent deux familles, les Leporidae ( lièvres et lapins ) et les Ochotonidae ( pikas ). Bien qu'ils puissent ressembler à des rongeurs et qu'ils aient été classés comme une superfamille dans cet ordre jusqu'au début du XXe siècle, ils ont depuis été considérés comme un ordre distinct. Ils diffèrent des rongeurs par un certain nombre de caractéristiques physiques, comme le fait d'avoir quatre incisives dans la mâchoire supérieure au lieu de deux.
@@ -818,7 +842,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -836,7 +860,9 @@
           <t>Ordre : Erinaceomorpha (hérissons et gymnures)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ordre des Erinaceomorpha contient une seule famille, les Erinaceidae, qui comprend les hérissons et les gymnures. Les hérissons sont facilement reconnaissables à leurs épines tandis que les gymnures ressemblent plus à de gros rats.
@@ -853,7 +879,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -871,7 +897,9 @@
           <t>Ordre : Soricomorpha (musaraignes, taupes et solénodons)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les "musaraignes" sont des mammifères insectivores. Les musaraignes et les solénodons ressemblent beaucoup aux souris tandis que les taupes sont des fouisseurs au corps robuste.
@@ -900,7 +928,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -918,7 +946,9 @@
           <t>Ordre : Chiroptères (chauves-souris)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La caractéristique la plus distinctive des chauves-souris est que leurs membres antérieurs sont développés comme des ailes, ce qui en fait les seuls mammifères capables de voler. Les espèces de chauves-souris représentent environ 20 % de tous les mammifères.
@@ -1011,7 +1041,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1029,7 +1059,9 @@
           <t>Ordre : Pholidota (pangolins)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ordre Pholidota comprend les huit espèces de pangolins. Les pangolins sont des fourmiliers et ont les griffes puissantes, le museau allongé et la longue langue que l'on voit chez les autres espèces de fourmiliers non apparentées.
@@ -1046,7 +1078,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1064,7 +1096,9 @@
           <t>Ordre : Cetacea (baleines)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ordre des cétacés comprend les baleines, les dauphins et les marsouins. Ce sont les mammifères les mieux adaptés à la vie aquatique avec un corps presque glabre en forme de fuseau, protégé par une épaisse couche de graisse, et des membres antérieurs et une queue modifiés pour assurer la propulsion sous l'eau.
@@ -1137,7 +1171,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1155,7 +1189,9 @@
           <t>Ordre : Carnivora (carnivores)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il existe plus de 260 espèces de carnivores, dont la majorité se nourrissent principalement de viande. Ils ont une forme de crâne et une dentition caractéristiques.
@@ -1222,7 +1258,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_mammif%C3%A8res_au_B%C3%A9nin</t>
+          <t>Liste_des_mammifères_au_Bénin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1240,7 +1276,9 @@
           <t>Ordre : Artiodactyles (ongulés à doigts pairs)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les ongulés à doigts pairs sont des ongulés dont le poids est supporté à peu près également par les troisième et quatrième orteils, plutôt que principalement ou entièrement par le troisième comme chez les périssodactyles. Il existe environ 220 espèces d'artiodactyles, dont beaucoup sont d'une grande importance économique pour l'homme.
